--- a/expected_value.xlsx
+++ b/expected_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/202a4d3f52753dd9/Desktop/CUHK/Applied Deep Learning/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Desktop\CUHK\Deep Learning\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_416EBB6A27F34661C2E4C35BD8E30D1A35498C20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF816BED-E279-465B-BFAB-095B7DB92A50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28210C42-0FEF-4F02-8B7B-6C1F74A39A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="253">
   <si>
     <t>ver2</t>
   </si>
@@ -780,6 +780,10 @@
   </si>
   <si>
     <t>ver3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,10 +873,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,422 +1160,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="53" style="3" customWidth="1"/>
+    <col min="1" max="3" width="53" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
+      <c r="C1" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="45">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="45">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="60">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="45">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="45">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="30">
+      <c r="C40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
+      <c r="C47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
+      <c r="C49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1587,419 +1740,572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2011,419 +2317,572 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
       <c r="B28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>129</v>
       </c>
       <c r="B30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>136</v>
       </c>
       <c r="B37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>139</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
       <c r="B43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>143</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>144</v>
       </c>
       <c r="B45" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>148</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
       <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2435,419 +2894,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>164</v>
       </c>
       <c r="B15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>165</v>
       </c>
       <c r="B16" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
       <c r="B18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>168</v>
       </c>
       <c r="B19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>170</v>
       </c>
       <c r="B21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
       <c r="B22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>173</v>
       </c>
       <c r="B24" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
       <c r="B26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
       <c r="B28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
       <c r="B29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>179</v>
       </c>
       <c r="B30" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>180</v>
       </c>
       <c r="B31" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>182</v>
       </c>
       <c r="B33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
       <c r="B39" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>189</v>
       </c>
       <c r="B40" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>195</v>
       </c>
       <c r="B46" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>197</v>
       </c>
       <c r="B48" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>199</v>
       </c>
       <c r="B50" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>200</v>
       </c>
       <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2859,419 +3471,572 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
       <c r="B10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>212</v>
       </c>
       <c r="B13" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
       <c r="B14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>215</v>
       </c>
       <c r="B16" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
       <c r="B17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>217</v>
       </c>
       <c r="B18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>218</v>
       </c>
       <c r="B19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>219</v>
       </c>
       <c r="B20" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>220</v>
       </c>
       <c r="B21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>222</v>
       </c>
       <c r="B23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
       <c r="B24" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>224</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>225</v>
       </c>
       <c r="B26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>227</v>
       </c>
       <c r="B28" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>228</v>
       </c>
       <c r="B29" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>229</v>
       </c>
       <c r="B30" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>230</v>
       </c>
       <c r="B31" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>232</v>
       </c>
       <c r="B33" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>234</v>
       </c>
       <c r="B35" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>235</v>
       </c>
       <c r="B36" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>236</v>
       </c>
       <c r="B37" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>240</v>
       </c>
       <c r="B41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>242</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>243</v>
       </c>
       <c r="B44" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>244</v>
       </c>
       <c r="B45" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>245</v>
       </c>
       <c r="B46" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>246</v>
       </c>
       <c r="B47" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>250</v>
       </c>
       <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
         <v>250</v>
       </c>
     </row>
